--- a/testData/User_info.xlsx
+++ b/testData/User_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asoftware\PyTestLoginFunctionality\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A26520-B905-4A94-AE16-C4B17F1951DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3B97CF-F806-430C-B828-8F9254497411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>123f</t>
   </si>
@@ -47,35 +47,32 @@
     <t>q</t>
   </si>
   <si>
+    <t>asd@gmail.com</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>as125</t>
+  </si>
+  <si>
+    <t>asdgmail</t>
+  </si>
+  <si>
+    <t>as123</t>
+  </si>
+  <si>
+    <t>r1234</t>
+  </si>
+  <si>
     <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>asd@gmail.com</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>as125</t>
-  </si>
-  <si>
-    <t>asdgmail</t>
-  </si>
-  <si>
-    <t>as123</t>
-  </si>
-  <si>
-    <t>r1234</t>
-  </si>
-  <si>
-    <t>farukyucel5@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +84,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,12 +125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -400,76 +413,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{242C3D69-EF9A-47B7-B3A2-A6F78C3DEA6F}"/>
-    <hyperlink ref="A1" r:id="rId2" xr:uid="{D61A5D32-727D-4295-90C1-689DCD47BA61}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{E546CEB0-DD67-41CD-88D4-6F7283B34079}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{075CC1DB-4166-41EF-9605-86B494874C1B}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{B4C95638-D2C6-4ED7-9853-C58D9D1343F8}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{E546CEB0-DD67-41CD-88D4-6F7283B34079}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{075CC1DB-4166-41EF-9605-86B494874C1B}"/>
+    <hyperlink ref="A1" r:id="rId4" xr:uid="{D61A5D32-727D-4295-90C1-689DCD47BA61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/testData/User_info.xlsx
+++ b/testData/User_info.xlsx
@@ -8,35 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asoftware\PyTestLoginFunctionality\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3B97CF-F806-430C-B828-8F9254497411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1775D96A-3FF1-4099-A7AC-1280E9779342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UserEmailAndPassword" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
   <si>
     <t>123f</t>
   </si>
@@ -65,7 +57,7 @@
     <t>r1234</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
+    <t>farukyucel5@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -75,6 +67,13 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,13 +91,6 @@
       <u/>
       <sz val="18"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,15 +115,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -413,78 +403,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{242C3D69-EF9A-47B7-B3A2-A6F78C3DEA6F}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{E546CEB0-DD67-41CD-88D4-6F7283B34079}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{075CC1DB-4166-41EF-9605-86B494874C1B}"/>
-    <hyperlink ref="A1" r:id="rId4" xr:uid="{D61A5D32-727D-4295-90C1-689DCD47BA61}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{7DE82566-15E6-46AC-A2DA-AABB7FC51A48}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A4495425-FA88-4A08-A7A9-DC3D61553180}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{4280AF7D-7D00-4E45-AF0F-C74F414E4974}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{8FC3899E-F841-46A9-BBE2-4A0CCDFB80AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
